--- a/Insta-DSA.xlsx
+++ b/Insta-DSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MyCodes\cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB70DDC-571E-4EA8-9A65-FFA477BF04CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5374CD2-31DA-46BC-902B-2785CDA0DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{DFF665D4-A0BA-43EB-BDBD-87190A05B639}"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="17280" windowHeight="8880" xr2:uid="{DFF665D4-A0BA-43EB-BDBD-87190A05B639}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,7 +873,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/Insta-DSA.xlsx
+++ b/Insta-DSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MyCodes\cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5374CD2-31DA-46BC-902B-2785CDA0DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7A28DC-C942-47C5-BC88-B8FB22A899A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="17280" windowHeight="8880" xr2:uid="{DFF665D4-A0BA-43EB-BDBD-87190A05B639}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFF665D4-A0BA-43EB-BDBD-87190A05B639}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +884,7 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/Insta-DSA.xlsx
+++ b/Insta-DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MyCodes\cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7A28DC-C942-47C5-BC88-B8FB22A899A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CF8A3-569B-4329-9030-78337691B682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFF665D4-A0BA-43EB-BDBD-87190A05B639}"/>
   </bookViews>

--- a/Insta-DSA.xlsx
+++ b/Insta-DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MyCodes\cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CF8A3-569B-4329-9030-78337691B682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406A7C75-7C4F-4C8A-9169-E29D7F63B57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFF665D4-A0BA-43EB-BDBD-87190A05B639}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -895,7 +904,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
